--- a/Документация/Диаграмма Ганта.xlsx
+++ b/Документация/Диаграмма Ганта.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Этапы проекта</t>
   </si>
@@ -85,6 +85,18 @@
   <si>
     <t>Диаграмма Ганта этапов проектирования</t>
   </si>
+  <si>
+    <t>Диаграмма классов</t>
+  </si>
+  <si>
+    <t>Определение требований</t>
+  </si>
+  <si>
+    <t>Добрынина Елизавета</t>
+  </si>
+  <si>
+    <t>Немчанинова Юлия</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +190,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +225,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -318,6 +358,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -325,11 +374,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -337,20 +384,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -370,6 +434,1332 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дата начала</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$6:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Введение</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Актуальность задачи</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Анализ аналогов</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Выбор методологии разработки</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Определение требований</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Диаграмма вариантов использования</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Диаграмма коммуникаций</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Диаграмма состояний</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Диаграмма последовательности</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Диаграмма взаимодействия</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Глоссарий проекта</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ТЗ</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Функциональная схема</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Прототипы экранов</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Диаграмма классов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$6:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yy;@</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43543</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43543</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43547</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43547</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Продолжительность</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$6:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Введение</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Актуальность задачи</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Анализ аналогов</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Выбор методологии разработки</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Определение требований</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Диаграмма вариантов использования</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Диаграмма коммуникаций</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Диаграмма состояний</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Диаграмма последовательности</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Диаграмма взаимодействия</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Глоссарий проекта</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ТЗ</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Функциональная схема</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Прототипы экранов</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Диаграмма классов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$6:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="400974936"/>
+        <c:axId val="400972976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="400974936"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400972976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="400972976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43551"/>
+          <c:min val="43524"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="15000"/>
+                      <a:lumOff val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d/m;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400974936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5097</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>588383</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134752</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,246 +2040,448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="18">
         <v>43525</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="19">
         <f>B6+C6</f>
         <v>43526</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="21">
         <v>43526</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="20">
         <v>6</v>
       </c>
-      <c r="D7" s="10">
-        <f t="shared" ref="D7:D19" si="0">B7+C7</f>
+      <c r="D7" s="22">
+        <f t="shared" ref="D7:D16" si="0">B7+C7</f>
         <v>43532</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="21">
         <v>43527</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="20">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="22">
         <f t="shared" si="0"/>
         <v>43529</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="21">
         <v>43534</v>
       </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="20">
+        <v>2</v>
+      </c>
+      <c r="D9" s="22">
         <f t="shared" si="0"/>
-        <v>43535</v>
+        <v>43536</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="21">
         <v>43538</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="20">
         <v>4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="22">
         <f t="shared" si="0"/>
         <v>43542</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="21">
+        <v>43541</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22">
+        <f t="shared" si="0"/>
+        <v>43542</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="21">
+        <v>43541</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22">
+        <f t="shared" si="0"/>
+        <v>43542</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="21">
+        <v>43542</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="0"/>
+        <v>43543</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="21">
+        <v>43542</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22">
+        <f>B14+C14</f>
+        <v>43543</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="21">
+        <v>43543</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22">
+        <f t="shared" si="0"/>
+        <v>43544</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="21">
+        <v>43543</v>
+      </c>
+      <c r="C16" s="20">
+        <v>3</v>
+      </c>
+      <c r="D16" s="22">
+        <f t="shared" si="0"/>
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="21">
         <v>43544</v>
       </c>
-      <c r="C17" s="8">
-        <v>7</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" ref="D17:D19" si="1">B17+C17</f>
-        <v>43551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="C17" s="20">
+        <v>5</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" ref="D17:D18" si="1">B17+C17</f>
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="21">
         <v>43547</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="20">
         <v>4</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="22">
         <f t="shared" si="1"/>
         <v>43551</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="21">
         <v>43547</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="13">
-        <f t="shared" si="1"/>
+      <c r="D19" s="21">
+        <f>B19+C19</f>
         <v>43549</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="26">
+        <v>43550</v>
+      </c>
+      <c r="C20" s="25">
+        <v>1</v>
+      </c>
+      <c r="D20" s="27">
+        <f>B20+C20</f>
+        <v>43551</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4">
+        <v>43525</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <f>B26+C26</f>
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7">
+        <v>43526</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" ref="D27:D31" si="2">B27+C27</f>
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="7">
+        <v>43527</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="2"/>
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="7">
+        <v>43534</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="2"/>
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7">
+        <v>43538</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="2"/>
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="7">
+        <v>43541</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="2"/>
+        <v>43542</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A20:D23"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="G21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Документация/Диаграмма Ганта.xlsx
+++ b/Документация/Диаграмма Ганта.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Этапы проекта</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Выбор методологии разработки</t>
-  </si>
-  <si>
-    <t>Определние требований</t>
   </si>
   <si>
     <t>Актуальность задачи</t>
@@ -96,6 +93,18 @@
   </si>
   <si>
     <t>Немчанинова Юлия</t>
+  </si>
+  <si>
+    <t>Создание репозитория в системе контроля версия GitHub</t>
+  </si>
+  <si>
+    <t>Установка и настройка необходимых инструментальных средств</t>
+  </si>
+  <si>
+    <t>Реализация классов приложения</t>
+  </si>
+  <si>
+    <t>Создание интерфейсной части приложения</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -367,6 +376,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -374,16 +422,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,23 +460,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -963,13 +1018,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="50"/>
+        <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="400974936"/>
-        <c:axId val="400972976"/>
+        <c:axId val="323398728"/>
+        <c:axId val="323407352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="400974936"/>
+        <c:axId val="323398728"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1001,10 +1056,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1014,7 +1066,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400972976"/>
+        <c:crossAx val="323407352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +1074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="400972976"/>
+        <c:axId val="323407352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43551"/>
@@ -1086,7 +1138,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400974936"/>
+        <c:crossAx val="323398728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1124,6 +1176,370 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дата начала</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$26:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Создание репозитория в системе контроля версия GitHub</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Установка и настройка необходимых инструментальных средств</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Создание интерфейсной части приложения</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Реализация классов приложения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$26:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yy;@</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Продолжительность</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="53000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="23639">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="91000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="48704">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="69366">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="39100">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="77000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="8470">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$26:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Создание репозитория в системе контроля версия GitHub</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Установка и настройка необходимых инструментальных средств</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Создание интерфейсной части приложения</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Реализация классов приложения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="401899200"/>
+        <c:axId val="401898808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="401899200"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401898808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401898808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43580"/>
+          <c:min val="43525"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d/m;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401899200"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -1176,6 +1592,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
   <cs:axisTitle>
@@ -1723,6 +2179,511 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1754,6 +2715,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2027,249 +3018,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:J22"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="10">
         <v>43525</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="11">
         <f>B6+C6</f>
         <v>43526</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
         <v>43526</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="12">
         <v>6</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="14">
         <f t="shared" ref="D7:D16" si="0">B7+C7</f>
         <v>43532</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="13">
         <v>43527</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="14">
         <f t="shared" si="0"/>
         <v>43529</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="13">
         <v>43534</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="12">
         <v>2</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
         <v>43536</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="21">
+      <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="13">
         <v>43538</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="12">
         <v>4</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="14">
         <f t="shared" si="0"/>
         <v>43542</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13">
         <v>43541</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
         <v>43542</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21">
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13">
         <v>43541</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="14">
         <f t="shared" si="0"/>
         <v>43542</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="21">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13">
         <v>43542</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="15">
         <v>1</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="13">
         <f t="shared" si="0"/>
         <v>43543</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21">
+      <c r="A14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
         <v>43542</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="14">
         <f>B14+C14</f>
         <v>43543</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21">
+      <c r="A15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13">
         <v>43543</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="14">
         <f t="shared" si="0"/>
         <v>43544</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21">
+      <c r="A16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="13">
         <v>43543</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="12">
         <v>3</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="14">
         <f t="shared" si="0"/>
         <v>43546</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="21">
+      <c r="A17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13">
         <v>43544</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="12">
         <v>5</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="14">
         <f t="shared" ref="D17:D18" si="1">B17+C17</f>
         <v>43549</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21">
+      <c r="A18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13">
         <v>43547</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="12">
         <v>4</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="14">
         <f t="shared" si="1"/>
         <v>43551</v>
       </c>
@@ -2285,16 +3276,16 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="21">
+      <c r="A19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="13">
         <v>43547</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="16">
         <v>2</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="13">
         <f>B19+C19</f>
         <v>43549</v>
       </c>
@@ -2310,165 +3301,147 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="26">
+      <c r="A20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18">
         <v>43550</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="17">
         <v>1</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="19">
         <f>B20+C20</f>
         <v>43551</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="A21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
         <v>43525</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f>B26+C26</f>
         <v>43526</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="7">
-        <v>43526</v>
-      </c>
-      <c r="C27" s="6">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="A27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6">
+        <v>43539</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7">
         <f t="shared" ref="D27:D31" si="2">B27+C27</f>
-        <v>43532</v>
+        <v>43544</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="7">
-        <v>43527</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="2"/>
-        <v>43529</v>
+      <c r="A28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>43570</v>
+      </c>
+      <c r="C28" s="5">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7">
+        <f>B28+C28</f>
+        <v>43579</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="7">
-        <v>43534</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="A29" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="36">
+        <v>43572</v>
+      </c>
+      <c r="C29" s="35">
+        <v>7</v>
+      </c>
+      <c r="D29" s="37">
         <f t="shared" si="2"/>
-        <v>43535</v>
+        <v>43579</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="7">
-        <v>43538</v>
-      </c>
-      <c r="C30" s="6">
-        <v>4</v>
-      </c>
-      <c r="D30" s="8">
-        <f t="shared" si="2"/>
-        <v>43542</v>
-      </c>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="7">
-        <v>43541</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
-        <f t="shared" si="2"/>
-        <v>43542</v>
-      </c>
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Документация/Диаграмма Ганта.xlsx
+++ b/Документация/Диаграмма Ганта.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Этапы проекта</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Диаграмма коммуникаций</t>
-  </si>
-  <si>
-    <t>Диаграмма взаимодействия</t>
   </si>
   <si>
     <t>Диаграмма последовательности</t>
@@ -105,6 +102,15 @@
   </si>
   <si>
     <t>Создание интерфейсной части приложения</t>
+  </si>
+  <si>
+    <t>Диаграмма развертывания</t>
+  </si>
+  <si>
+    <t>Диаграмма объектов</t>
+  </si>
+  <si>
+    <t>Диаграмма деятельности</t>
   </si>
 </sst>
 </file>
@@ -175,14 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
@@ -200,6 +198,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -208,15 +215,16 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="3"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +251,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,29 +442,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,23 +465,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -536,9 +566,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$6:$A$20</c:f>
+              <c:f>Лист1!$A$6:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Введение</c:v>
                 </c:pt>
@@ -567,7 +597,7 @@
                   <c:v>Диаграмма последовательности</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Диаграмма взаимодействия</c:v>
+                  <c:v>Диаграмма деятельности</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Глоссарий проекта</c:v>
@@ -582,6 +612,12 @@
                   <c:v>Прототипы экранов</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Диаграмма развертывания</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Диаграмма объектов</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Диаграмма классов</c:v>
                 </c:pt>
               </c:strCache>
@@ -589,10 +625,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$6:$B$20</c:f>
+              <c:f>Лист1!$B$6:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yy;@</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43525</c:v>
                 </c:pt>
@@ -606,13 +642,13 @@
                   <c:v>43534</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43538</c:v>
+                  <c:v>43535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43541</c:v>
+                  <c:v>43536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43541</c:v>
+                  <c:v>43536</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43542</c:v>
@@ -636,7 +672,13 @@
                   <c:v>43547</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43550</c:v>
+                  <c:v>43580</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43589</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43580</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,20 +855,6 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
             <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -889,7 +917,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="14"/>
+            <c:idx val="16"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -904,9 +932,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$6:$A$20</c:f>
+              <c:f>Лист1!$A$6:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Введение</c:v>
                 </c:pt>
@@ -935,7 +963,7 @@
                   <c:v>Диаграмма последовательности</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Диаграмма взаимодействия</c:v>
+                  <c:v>Диаграмма деятельности</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Глоссарий проекта</c:v>
@@ -950,6 +978,12 @@
                   <c:v>Прототипы экранов</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Диаграмма развертывания</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Диаграмма объектов</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Диаграмма классов</c:v>
                 </c:pt>
               </c:strCache>
@@ -957,10 +991,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$6:$C$20</c:f>
+              <c:f>Лист1!$C$6:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -995,7 +1029,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
@@ -1005,6 +1039,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,11 +1060,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="323398728"/>
-        <c:axId val="323407352"/>
+        <c:axId val="340908200"/>
+        <c:axId val="340908984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="323398728"/>
+        <c:axId val="340908200"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1066,7 +1106,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323407352"/>
+        <c:crossAx val="340908984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1074,7 +1114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="323407352"/>
+        <c:axId val="340908984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43551"/>
@@ -1138,7 +1178,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323398728"/>
+        <c:crossAx val="340908200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1214,7 +1254,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$25</c:f>
+              <c:f>Лист1!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1233,7 +1273,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$26:$A$29</c:f>
+              <c:f>Лист1!$A$28:$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1253,7 +1293,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$26:$B$29</c:f>
+              <c:f>Лист1!$B$28:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yy;@</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1267,7 +1307,7 @@
                   <c:v>43570</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43572</c:v>
+                  <c:v>43571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,7 +1318,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$25</c:f>
+              <c:f>Лист1!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1346,7 +1386,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$26:$A$29</c:f>
+              <c:f>Лист1!$A$28:$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1366,7 +1406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$26:$C$29</c:f>
+              <c:f>Лист1!$C$28:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1377,10 +1417,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,11 +1436,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="401899200"/>
-        <c:axId val="401898808"/>
+        <c:axId val="340910552"/>
+        <c:axId val="340910160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401899200"/>
+        <c:axId val="340910552"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1440,7 +1480,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401898808"/>
+        <c:crossAx val="340910160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1448,7 +1488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401898808"/>
+        <c:axId val="340910160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43580"/>
@@ -1498,7 +1538,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401899200"/>
+        <c:crossAx val="340910552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -2693,15 +2733,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5097</xdr:colOff>
+      <xdr:colOff>5096</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>81287</xdr:rowOff>
+      <xdr:rowOff>81286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>588383</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>134752</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2724,13 +2764,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>4480</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>172810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3016,251 +3056,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="22">
         <v>43525</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="23">
         <f>B6+C6</f>
         <v>43526</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="25">
         <v>43526</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="24">
         <v>6</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="26">
         <f t="shared" ref="D7:D16" si="0">B7+C7</f>
         <v>43532</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="25">
         <v>43527</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="24">
         <v>2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="26">
         <f t="shared" si="0"/>
         <v>43529</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="28">
         <v>43534</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="27">
         <v>2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="29">
         <f t="shared" si="0"/>
         <v>43536</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="13">
-        <v>43538</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="A10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="28">
+        <v>43535</v>
+      </c>
+      <c r="C10" s="27">
         <v>4</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="29">
         <f t="shared" si="0"/>
-        <v>43542</v>
+        <v>43539</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13">
-        <v>43541</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="25">
+        <v>43536</v>
+      </c>
+      <c r="C11" s="24">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="26">
         <f t="shared" si="0"/>
-        <v>43542</v>
+        <v>43537</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
-        <v>43541</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="25">
+        <v>43536</v>
+      </c>
+      <c r="C12" s="24">
         <v>1</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="26">
         <f t="shared" si="0"/>
-        <v>43542</v>
+        <v>43537</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="28">
         <v>43542</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="30">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="28">
         <f t="shared" si="0"/>
         <v>43543</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="25">
         <v>43542</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="24">
         <v>1</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="26">
         <f>B14+C14</f>
         <v>43543</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="A15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="28">
         <v>43543</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="27">
         <v>1</v>
       </c>
-      <c r="D15" s="14">
-        <f t="shared" si="0"/>
+      <c r="D15" s="29">
+        <f>B15+C15</f>
         <v>43544</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="A16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="28">
         <v>43543</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="27">
         <v>3</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="29">
         <f t="shared" si="0"/>
         <v>43546</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="A17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="28">
         <v>43544</v>
       </c>
-      <c r="C17" s="12">
-        <v>5</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" ref="D17:D18" si="1">B17+C17</f>
-        <v>43549</v>
+      <c r="C17" s="27">
+        <v>7</v>
+      </c>
+      <c r="D17" s="29">
+        <f t="shared" ref="D17:D21" si="1">B17+C17</f>
+        <v>43551</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="A18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="25">
         <v>43547</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="24">
         <v>4</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="26">
         <f t="shared" si="1"/>
         <v>43551</v>
       </c>
@@ -3276,17 +3316,17 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="A19" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="25">
         <v>43547</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="13">
-        <f>B19+C19</f>
+      <c r="D19" s="26">
+        <f t="shared" si="1"/>
         <v>43549</v>
       </c>
       <c r="F19" s="1"/>
@@ -3301,157 +3341,215 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="18">
-        <v>43550</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="A20" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="25">
+        <v>43580</v>
+      </c>
+      <c r="C20" s="24">
         <v>1</v>
       </c>
-      <c r="D20" s="19">
-        <f>B20+C20</f>
-        <v>43551</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="D20" s="26">
+        <f t="shared" si="1"/>
+        <v>43581</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="28">
+        <v>43589</v>
+      </c>
+      <c r="C21" s="27">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29">
+        <f t="shared" si="1"/>
+        <v>43590</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="B22" s="32">
+        <v>43580</v>
+      </c>
+      <c r="C22" s="31">
+        <v>10</v>
+      </c>
+      <c r="D22" s="33">
+        <f>B22+C22</f>
+        <v>43590</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="L22" s="38"/>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="A23" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="L23" s="37"/>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B27" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C27" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D27" s="47" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3">
-        <v>43525</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <f>B26+C26</f>
-        <v>43526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="6">
-        <v>43539</v>
-      </c>
-      <c r="C27" s="5">
-        <v>5</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" ref="D27:D31" si="2">B27+C27</f>
-        <v>43544</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6">
-        <v>43570</v>
-      </c>
-      <c r="C28" s="5">
-        <v>9</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43525</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
         <f>B28+C28</f>
-        <v>43579</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="36">
-        <v>43572</v>
-      </c>
-      <c r="C29" s="35">
-        <v>7</v>
-      </c>
-      <c r="D29" s="37">
-        <f t="shared" si="2"/>
-        <v>43579</v>
+      <c r="A29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>43539</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" ref="D29:D31" si="2">B29+C29</f>
+        <v>43544</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
+      <c r="A30" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="40">
+        <v>43570</v>
+      </c>
+      <c r="C30" s="39">
+        <v>6</v>
+      </c>
+      <c r="D30" s="41">
+        <f>B30+C30</f>
+        <v>43576</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
+      <c r="A31" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="43">
+        <v>43571</v>
+      </c>
+      <c r="C31" s="42">
+        <v>2</v>
+      </c>
+      <c r="D31" s="44">
+        <f t="shared" si="2"/>
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A23:D26"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="G23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
